--- a/Эксперименты/Одиночный нормальные условия.xlsx
+++ b/Эксперименты/Одиночный нормальные условия.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6CD41E-F0DB-4AAA-996A-257D338DA18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706C937-824F-42C8-BD87-FD7DC3AC77CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
   <sheets>
-    <sheet name="Разовый1" sheetId="1" r:id="rId1"/>
+    <sheet name="Эксперимент" sheetId="1" r:id="rId1"/>
+    <sheet name="Расчеты" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>n</t>
   </si>
@@ -91,6 +92,33 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>T С</t>
+  </si>
+  <si>
+    <t>k Дж/К</t>
+  </si>
+  <si>
+    <t>n Па*с</t>
+  </si>
+  <si>
+    <t>T K</t>
+  </si>
+  <si>
+    <t>D м2/с</t>
+  </si>
+  <si>
+    <t>D2 м2/с *1e6</t>
+  </si>
+  <si>
+    <t>n cПз</t>
   </si>
 </sst>
 </file>
@@ -98,8 +126,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -185,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,11 +258,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,40 +283,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -286,11 +327,76 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -326,7 +432,26 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -348,7 +473,102 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -367,16 +587,6 @@
         <vertical/>
         <horizontal/>
       </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -405,136 +615,10 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,7 +634,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A4:M13" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -567,76 +651,132 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="24">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="22">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица2[m
 стакан]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="21">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*(1-L4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="20">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="19">
       <calculatedColumnFormula>F4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="18">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="17">
       <calculatedColumnFormula>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="15">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица2[m
 стакан]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="14">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="13">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8266A390-EFAC-4158-AC90-FDA85A1FB976}" name="n" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{8266A390-EFAC-4158-AC90-FDA85A1FB976}" name="n" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:C2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:C2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B1:C2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6C94ACB-02C3-4208-A818-A864BEAEDA5B}" name="m_x000a_стакан" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6C94ACB-02C3-4208-A818-A864BEAEDA5B}" name="m_x000a_стакан" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5753743-22A1-4085-8D06-3B2B831F1ED1}" name="Таблица3" displayName="Таблица3" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{DF755A78-2234-47B4-A4F0-FDFFE382EF19}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
+      <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:H12" totalsRowShown="0">
+  <autoFilter ref="A3:H12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
+      <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="5">
+      <calculatedColumnFormula>Эксперимент!L5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="6">
+      <calculatedColumnFormula>Эксперимент!M5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="2">
+      <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
+      <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="4">
+      <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 м2/с *1e6" dataDxfId="1">
+      <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]*1000000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -939,20 +1079,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3038D3D-534C-490E-A986-71F6B2B3A4C4}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="5" width="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="2" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1794,4 +1928,367 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D201CE-5EF8-4DC4-B922-C0ABDEF8ECFD}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
+        <v>1.3806490000000001E-23</v>
+      </c>
+      <c r="B2" s="23">
+        <f>130*0.000000001</f>
+        <v>1.3E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <f>Эксперимент!A5</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <f>Эксперимент!L5</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <f>Эксперимент!M5</f>
+        <v>143.69999999999999</v>
+      </c>
+      <c r="D4">
+        <v>24.5</v>
+      </c>
+      <c r="E4">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="F4">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>297.64999999999998</v>
+      </c>
+      <c r="G4" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>1.1670458699901181E-14</v>
+      </c>
+      <c r="H4" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>1.1670458699901182E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <f>Эксперимент!A6</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="26">
+        <f>Эксперимент!L6</f>
+        <v>2.4385433705727495E-2</v>
+      </c>
+      <c r="C5" s="24">
+        <f>Эксперимент!M6</f>
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>24.2</v>
+      </c>
+      <c r="E5">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="F5">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>297.34999999999997</v>
+      </c>
+      <c r="G5" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>1.7822921592457374E-14</v>
+      </c>
+      <c r="H5" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>1.7822921592457375E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <f>Эксперимент!A7</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <f>Эксперимент!L7</f>
+        <v>4.9989282004382699E-2</v>
+      </c>
+      <c r="C6" s="24">
+        <f>Эксперимент!M7</f>
+        <v>68.7</v>
+      </c>
+      <c r="D6">
+        <v>23.9</v>
+      </c>
+      <c r="E6">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>6.8700000000000011E-2</v>
+      </c>
+      <c r="F6">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>297.04999999999995</v>
+      </c>
+      <c r="G6" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>2.436192640765918E-14</v>
+      </c>
+      <c r="H6" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>2.4361926407659179E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <f>Эксперимент!A8</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="26">
+        <f>Эксперимент!L8</f>
+        <v>7.1441829351830244E-2</v>
+      </c>
+      <c r="C7" s="24">
+        <f>Эксперимент!M8</f>
+        <v>56.1</v>
+      </c>
+      <c r="D7">
+        <v>23.4</v>
+      </c>
+      <c r="E7">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>5.6100000000000004E-2</v>
+      </c>
+      <c r="F7">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>296.54999999999995</v>
+      </c>
+      <c r="G7" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>2.9783372579884279E-14</v>
+      </c>
+      <c r="H7" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>2.978337257988428E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <f>Эксперимент!A9</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="26">
+        <f>Эксперимент!L9</f>
+        <v>9.7709239786353042E-2</v>
+      </c>
+      <c r="C8" s="24">
+        <f>Эксперимент!M9</f>
+        <v>45.8</v>
+      </c>
+      <c r="D8">
+        <v>22.9</v>
+      </c>
+      <c r="E8">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>4.58E-2</v>
+      </c>
+      <c r="F8">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>296.04999999999995</v>
+      </c>
+      <c r="G8" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>3.6419870289450442E-14</v>
+      </c>
+      <c r="H8" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>3.6419870289450444E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <f>Эксперимент!A10</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="26">
+        <f>Эксперимент!L10</f>
+        <v>0.12435368962205146</v>
+      </c>
+      <c r="C9" s="24">
+        <f>Эксперимент!M10</f>
+        <v>36.5</v>
+      </c>
+      <c r="D9">
+        <v>22.9</v>
+      </c>
+      <c r="E9">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="F9">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>296.04999999999995</v>
+      </c>
+      <c r="G9" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>4.5699453678269322E-14</v>
+      </c>
+      <c r="H9" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>4.5699453678269322E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <f>Эксперимент!A11</f>
+        <v>7</v>
+      </c>
+      <c r="B10" s="26">
+        <f>Эксперимент!L11</f>
+        <v>0.15015253139919887</v>
+      </c>
+      <c r="C10" s="24">
+        <f>Эксперимент!M11</f>
+        <v>29.5</v>
+      </c>
+      <c r="D10">
+        <v>23.5</v>
+      </c>
+      <c r="E10">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>2.9500000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>296.64999999999998</v>
+      </c>
+      <c r="G10" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>5.6657987465303172E-14</v>
+      </c>
+      <c r="H10" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>5.6657987465303173E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <f>Эксперимент!A12</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="26">
+        <f>Эксперимент!L12</f>
+        <v>0.17510989689219689</v>
+      </c>
+      <c r="C11" s="24">
+        <f>Эксперимент!M12</f>
+        <v>25.5</v>
+      </c>
+      <c r="D11">
+        <v>23.1</v>
+      </c>
+      <c r="E11">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>2.5500000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>296.25</v>
+      </c>
+      <c r="G11" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>6.545713397045888E-14</v>
+      </c>
+      <c r="H11" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>6.5457133970458877E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <f>Эксперимент!A13</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="26">
+        <f>Эксперимент!L13</f>
+        <v>0.20322356353047349</v>
+      </c>
+      <c r="C12" s="24">
+        <f>Эксперимент!M13</f>
+        <v>21.8</v>
+      </c>
+      <c r="D12">
+        <v>21.8</v>
+      </c>
+      <c r="E12">
+        <f>Таблица4[[#This Row],[n cПз]]*0.001</f>
+        <v>2.18E-2</v>
+      </c>
+      <c r="F12">
+        <f>Таблица4[[#This Row],[T С]]+273.15</f>
+        <v>294.95</v>
+      </c>
+      <c r="G12" s="23">
+        <f>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</f>
+        <v>7.6230841551033871E-14</v>
+      </c>
+      <c r="H12" s="23">
+        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
+        <v>7.6230841551033864E-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Эксперименты/Одиночный нормальные условия.xlsx
+++ b/Эксперименты/Одиночный нормальные условия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Эксперименты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706C937-824F-42C8-BD87-FD7DC3AC77CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630172A6-D69E-4A6C-9213-B340E497AF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{B4D95E1D-7DF1-45F9-84A6-56C0FCEE3758}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>n</t>
   </si>
@@ -115,10 +115,18 @@
     <t>D м2/с</t>
   </si>
   <si>
-    <t>D2 м2/с *1e6</t>
+    <t>n cПз</t>
   </si>
   <si>
-    <t>n cПз</t>
+    <t>с</t>
+  </si>
+  <si>
+    <t>D2 см2/сут
+(шар)</t>
+  </si>
+  <si>
+    <t>D0 см2/сут
+(просто)</t>
   </si>
 </sst>
 </file>
@@ -336,7 +344,34 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -353,27 +388,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -633,8 +647,951 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Расчеты!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4385433705727495E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9989282004382699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1441829351830244E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7709239786353042E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12435368962205146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15015253139919887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17510989689219689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20322356353047349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Расчеты!$I$4:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1241.568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>812.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>593.5680000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>484.70400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>315.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254.88000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220.32000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188.352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1197-4F0F-A074-E88CC2A48DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1013053520"/>
+        <c:axId val="396831488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1013053520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396831488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396831488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013053520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>135876</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>18560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>443273</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EFA06A-5465-4837-B66D-15AA6B6A4621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D3B64E-5883-4DDC-BE47-CAE203CDCD51}" name="Таблица1" displayName="Таблица1" ref="A4:M13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A4:M13" xr:uid="{B8DF02FA-3140-484C-B272-AB560FB12BBD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -651,89 +1608,93 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="24">
+    <tableColumn id="14" xr3:uid="{77FFFFAD-27FE-4585-A8A5-4920141174AB}" name="#" dataDxfId="26">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{6A216FEE-C1E1-40E4-815E-5380A5321732}" name="m0_x000a_смесь    _x000a_стакан" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D1757256-BC6C-420E-BEA8-B604BC77F285}" name="m0_x000a_смесь" dataDxfId="24">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь    
 стакан]]-Таблица2[m
 стакан]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{5E2A2C51-8E70-4FD9-9B53-E7837EF2D163}" name="m0_x000a_ОКМ" dataDxfId="23">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*(1-L4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{D1940891-C2DF-4AB7-A8E2-AF06FDA60F0D}" name="m0_x000a_спирт" dataDxfId="22">
       <calculatedColumnFormula>Таблица1[[#This Row],[m0
 смесь]]*L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{78FAF393-3070-4836-B8E9-4D79C52F839F}" name="w%1 т_x000a_спирт " dataDxfId="21">
       <calculatedColumnFormula>F4+0.025</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{EA5712E3-E93C-456A-9EDE-9A8CA94753D1}" name="m+ т_x000a_спирт" dataDxfId="20">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 смесь]]*Таблица1[[#This Row],[w%1 т
 спирт ]]-Таблица1[[#This Row],[m0
 спирт]])/(1-Таблица1[[#This Row],[w%1 т
 спирт ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{BCA134A9-8EEF-453E-9616-5112E6D2B5D5}" name="V+ т_x000a_спирт" dataDxfId="19">
       <calculatedColumnFormula>Таблица1[[#This Row],[m+ т
 спирт]]/Таблица2[ro 
 спирт]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{36EC5429-FC05-4032-BBD0-3C2B1210A8F9}" name="m1 _x000a_смесь_x000a_стакан" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{F3443B4E-6300-47B1-8E7C-FC3BF1A5E3CD}" name="m1_x000a_смеси" dataDxfId="17">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица2[m
 стакан]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{D23B2127-A60A-4E45-A0EF-767833FF7A03}" name="m+_x000a_спирта" dataDxfId="16">
       <calculatedColumnFormula>Таблица1[[#This Row],[m1 
 смесь
 стакан]]-Таблица1[[#This Row],[m0
 смесь    
 стакан]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{896470BD-9890-41DA-8AB1-D5964728C2BF}" name="w%1 _x000a_" dataDxfId="15">
       <calculatedColumnFormula>(Таблица1[[#This Row],[m0
 спирт]]+Таблица1[[#This Row],[m+
 спирта]])/Таблица1[[#This Row],[m1
 смеси]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8266A390-EFAC-4158-AC90-FDA85A1FB976}" name="n" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{8266A390-EFAC-4158-AC90-FDA85A1FB976}" name="n" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:C2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{566E47B1-38C6-4891-933F-DFE3ED9B6D33}" name="Таблица2" displayName="Таблица2" ref="B1:C2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B1:C2" xr:uid="{FE5521C9-5D13-479F-9E53-564B5B98F3E0}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6C94ACB-02C3-4208-A818-A864BEAEDA5B}" name="m_x000a_стакан" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E6C94ACB-02C3-4208-A818-A864BEAEDA5B}" name="m_x000a_стакан" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A6AA64F7-0B92-4711-9CE9-3080CD0125E2}" name="ro _x000a_спирт" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5753743-22A1-4085-8D06-3B2B831F1ED1}" name="Таблица3" displayName="Таблица3" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{DF755A78-2234-47B4-A4F0-FDFFE382EF19}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5753743-22A1-4085-8D06-3B2B831F1ED1}" name="Таблица3" displayName="Таблица3" ref="B1:D2" totalsRowShown="0">
+  <autoFilter ref="B1:D2" xr:uid="{DF755A78-2234-47B4-A4F0-FDFFE382EF19}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3774E3D5-6290-45BF-B35C-03CB2E245F7C}" name="k Дж/К" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{55F504B1-719F-4E9C-8CDF-B05309EA8CE7}" name="a">
       <calculatedColumnFormula>130*0.000000001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{056BA55C-CA76-4348-A678-F9A779B4DCD3}" name="с">
+      <calculatedColumnFormula>100*60*60*24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,8 +1702,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:H12" totalsRowShown="0">
-  <autoFilter ref="A3:H12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76C9F090-2D6D-49FD-B846-FB031D4BCBCC}" name="Таблица4" displayName="Таблица4" ref="A3:I12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:I12" xr:uid="{6314EA84-7A7E-4A64-B28A-92AA3AA50ED1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -751,29 +1712,33 @@
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="7">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D6862F0D-0FA5-428B-8BDE-548DB2AB7E13}" name="#" dataDxfId="8">
       <calculatedColumnFormula>Эксперимент!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{75F02D5D-53D0-4237-8DD4-E258E5A352D0}" name="w" dataDxfId="7">
       <calculatedColumnFormula>Эксперимент!L5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{89A2AB49-E643-4792-891C-B4B387D04709}" name="n cПз" dataDxfId="6">
       <calculatedColumnFormula>Эксперимент!M5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CA6E2CAA-7252-4CF1-B360-1276BB443A61}" name="T С"/>
-    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{3AE2087B-AA31-4E3C-9AB9-19AF10173DC6}" name="n Па*с" dataDxfId="5">
       <calculatedColumnFormula>Таблица4[[#This Row],[n cПз]]*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{C0B73B63-48A8-4C9C-90A8-771CE2A4E2C3}" name="T K" dataDxfId="4">
       <calculatedColumnFormula>Таблица4[[#This Row],[T С]]+273.15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{F1400D6F-3EFB-4E45-BFB3-9D931FE20A6D}" name="D м2/с" dataDxfId="3">
       <calculatedColumnFormula>Таблица3[k Дж/К]*Таблица4[[#This Row],[T K]]/(6*PI()*Таблица4[[#This Row],[n Па*с]]*Таблица3[a])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 м2/с *1e6" dataDxfId="1">
-      <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]*1000000</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{925D8097-425B-433B-8787-4C47A703359F}" name="D2 см2/сут_x000a_(шар)" dataDxfId="2">
+      <calculatedColumnFormula>Таблица4[[#This Row],[D м2/с]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{DC4F818A-DEC1-4A2F-A44C-B7C8B0779905}" name="D0 см2/сут_x000a_(просто)" dataDxfId="1">
+      <calculatedColumnFormula>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1932,62 +2897,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D201CE-5EF8-4DC4-B922-C0ABDEF8ECFD}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="27">
         <v>1.3806490000000001E-23</v>
       </c>
-      <c r="B2" s="23">
+      <c r="C2" s="23">
         <f>130*0.000000001</f>
         <v>1.3E-7</v>
       </c>
+      <c r="D2">
+        <f>100*60*60*24</f>
+        <v>8640000</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <f>Эксперимент!A5</f>
         <v>1</v>
@@ -2016,11 +2992,15 @@
         <v>1.1670458699901181E-14</v>
       </c>
       <c r="H4" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>1.1670458699901182E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>1.1670458699901181E-14</v>
+      </c>
+      <c r="I4">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>1241.568</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <f>Эксперимент!A6</f>
         <v>2</v>
@@ -2049,11 +3029,15 @@
         <v>1.7822921592457374E-14</v>
       </c>
       <c r="H5" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>1.7822921592457375E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>1.7822921592457374E-14</v>
+      </c>
+      <c r="I5">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>812.16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <f>Эксперимент!A7</f>
         <v>3</v>
@@ -2082,11 +3066,15 @@
         <v>2.436192640765918E-14</v>
       </c>
       <c r="H6" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>2.4361926407659179E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>2.436192640765918E-14</v>
+      </c>
+      <c r="I6">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>593.5680000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <f>Эксперимент!A8</f>
         <v>4</v>
@@ -2115,11 +3103,15 @@
         <v>2.9783372579884279E-14</v>
       </c>
       <c r="H7" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>2.978337257988428E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>2.9783372579884279E-14</v>
+      </c>
+      <c r="I7">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>484.70400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <f>Эксперимент!A9</f>
         <v>5</v>
@@ -2148,11 +3140,15 @@
         <v>3.6419870289450442E-14</v>
       </c>
       <c r="H8" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>3.6419870289450444E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>3.6419870289450442E-14</v>
+      </c>
+      <c r="I8">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>395.71199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <f>Эксперимент!A10</f>
         <v>6</v>
@@ -2181,11 +3177,15 @@
         <v>4.5699453678269322E-14</v>
       </c>
       <c r="H9" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>4.5699453678269322E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>4.5699453678269322E-14</v>
+      </c>
+      <c r="I9">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>315.36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <f>Эксперимент!A11</f>
         <v>7</v>
@@ -2214,11 +3214,15 @@
         <v>5.6657987465303172E-14</v>
       </c>
       <c r="H10" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>5.6657987465303173E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>5.6657987465303172E-14</v>
+      </c>
+      <c r="I10">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>254.88000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <f>Эксперимент!A12</f>
         <v>8</v>
@@ -2247,11 +3251,15 @@
         <v>6.545713397045888E-14</v>
       </c>
       <c r="H11" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>6.5457133970458877E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>6.545713397045888E-14</v>
+      </c>
+      <c r="I11">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>220.32000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <f>Эксперимент!A13</f>
         <v>9</v>
@@ -2280,15 +3288,20 @@
         <v>7.6230841551033871E-14</v>
       </c>
       <c r="H12" s="23">
-        <f>Таблица4[[#This Row],[D м2/с]]*1000000</f>
-        <v>7.6230841551033864E-8</v>
+        <f>Таблица4[[#This Row],[D м2/с]]</f>
+        <v>7.6230841551033871E-14</v>
+      </c>
+      <c r="I12">
+        <f>Таблица4[[#This Row],[n Па*с]]/1000*Таблица3[с]</f>
+        <v>188.352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>